--- a/resources/testdata/Demo.xlsx
+++ b/resources/testdata/Demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TechnoCredits\Projects\TechnoGitProject\SeleniumTechnoJun20\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TechnoCredits\Projects\OCT20\SeleniumTechnoOct2020\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9006C0FD-7733-4313-B590-9A876360ECC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C3E86F-2069-4962-A09C-C03039F2CB91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>mkanani</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>expected result</t>
-  </si>
-  <si>
-    <t>kkrishna1234</t>
   </si>
 </sst>
 </file>
@@ -385,7 +382,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,11 +428,11 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
+      <c r="B4">
+        <v>1234</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
